--- a/Excel2Json/Test/role_initialization.xlsx
+++ b/Excel2Json/Test/role_initialization.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>int</t>
   </si>
@@ -27,10 +27,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item_2</t>
   </si>
   <si>
@@ -50,14 +42,6 @@
   </si>
   <si>
     <t>1:100000|2:100000|3:100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map&lt;int,int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector&lt;int&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -84,27 +68,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>11109:100|11110:100|11111:100|11112:100|11113:100|11114:100|11115:100|11116:100|11173:100|11118:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map&lt;int,int&gt;;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map&lt;int,int&gt;;20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>31001:100|32001:100|33001:100|34001:100|35001:100|36001:100|36002:100|36003:100|36004:100|36005:100|36006:100|21001:100|21002:100|21003:100|21004:100|21005:100|21006:100|21007:100|21008:100|21009:100|21010:100|21011:100|21012:100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11109:100|11110:100|11111:100|11112:100|11113:100|11114:100|11115:100|11116:100|11173:100|11118:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001</t>
+    <t>map&lt;int,int&gt;;30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;int&gt;;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;int&gt;;5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -559,7 +571,8 @@
     <col min="1" max="1" width="8.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="65.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="65.5" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.375" style="2" customWidth="1"/>
     <col min="9" max="16" width="9" style="2"/>
@@ -570,22 +583,22 @@
   <sheetData>
     <row r="1" spans="1:19" ht="33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -606,16 +619,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
@@ -639,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -669,22 +682,22 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -705,19 +718,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="G5" s="11"/>
       <c r="Q5" s="14"/>
